--- a/app/config/tables/beneficiaries/forms/beneficiaries/beneficiaries.xlsx
+++ b/app/config/tables/beneficiaries/forms/beneficiaries/beneficiaries.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1080" yWindow="2520" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -60,9 +60,6 @@
     <t>beneficiary_code</t>
   </si>
   <si>
-    <t>envelope_code</t>
-  </si>
-  <si>
     <t>date_distributed</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Take a picture of the beneficiary card now</t>
   </si>
   <si>
-    <t>Scan the envelope barcode</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
@@ -178,6 +172,39 @@
   </si>
   <si>
     <t>confirm_distribution</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>distributions</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>Scan the item barcode</t>
+  </si>
+  <si>
+    <t>distributions_received</t>
+  </si>
+  <si>
+    <t>remaining_distributions</t>
+  </si>
+  <si>
+    <t>scanned_item_code</t>
+  </si>
+  <si>
+    <t>mobile_provider</t>
+  </si>
+  <si>
+    <t>hh_size</t>
   </si>
 </sst>
 </file>
@@ -352,7 +379,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -366,8 +393,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -389,20 +420,26 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -732,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -774,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -827,15 +864,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>11</v>
@@ -843,42 +880,42 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -886,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -894,7 +931,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -902,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -910,7 +947,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -918,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -926,7 +963,79 @@
         <v>2</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -958,26 +1067,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7">
         <v>20150212</v>
@@ -985,26 +1094,26 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1022,7 +1131,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1041,58 +1150,58 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D5" s="15"/>
     </row>
@@ -1139,13 +1248,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
